--- a/output/below_50/tRNA-Ala-AGC-11-1.xlsx
+++ b/output/below_50/tRNA-Ala-AGC-11-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>chr6</t>
   </si>
@@ -108,108 +108,6 @@
   </si>
   <si>
     <t>74</t>
-  </si>
-  <si>
-    <t>26572301</t>
-  </si>
-  <si>
-    <t>26572324</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>26572304</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>GAGGGGCGGAAGTCATGCTG</t>
-  </si>
-  <si>
-    <t>86% (62)</t>
-  </si>
-  <si>
-    <t>88% (67)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 49, Doench 2016: 86%, Moreno-Mateos: 88%</t>
-  </si>
-  <si>
-    <t>3.13462E+11</t>
-  </si>
-  <si>
-    <t>26572328</t>
-  </si>
-  <si>
-    <t>26572351</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>26572331</t>
-  </si>
-  <si>
-    <t>ATGGTAAAACAGGTTATAGA</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>66% (55)</t>
-  </si>
-  <si>
-    <t>29% (35)</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 47, Doench 2016: 66%, Moreno-Mateos: 29%</t>
-  </si>
-  <si>
-    <t>47116427253</t>
-  </si>
-  <si>
-    <t>26572476</t>
-  </si>
-  <si>
-    <t>26572499</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>26572496</t>
-  </si>
-  <si>
-    <t>CTGGAAGCAAATTGAGGATG</t>
-  </si>
-  <si>
-    <t>63% (54)</t>
-  </si>
-  <si>
-    <t>82% (62)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 49, Doench 2016: 63%, Moreno-Mateos: 82%</t>
-  </si>
-  <si>
-    <t>64282079139</t>
   </si>
 </sst>
 </file>
@@ -254,7 +152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -437,183 +335,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" t="s">
-        <v>53</v>
-      </c>
-      <c r="S5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R6" t="s">
-        <v>64</v>
-      </c>
-      <c r="S6" t="s">
-        <v>65</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
